--- a/Jaaga Fellowship resource requirements.xlsx
+++ b/Jaaga Fellowship resource requirements.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14240" tabRatio="500"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="54">
   <si>
     <t>LED Costume requirements</t>
   </si>
@@ -153,13 +153,37 @@
     <t>Soldering iron with flux and soldering wire with stand</t>
   </si>
   <si>
-    <t>1 available</t>
-  </si>
-  <si>
     <t>Duracell batteries</t>
   </si>
   <si>
     <t>For quad remote</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wire cutters </t>
+  </si>
+  <si>
+    <t>a - 2</t>
+  </si>
+  <si>
+    <t>Multimeters</t>
+  </si>
+  <si>
+    <t>4 available</t>
+  </si>
+  <si>
+    <t>Solder sucker</t>
+  </si>
+  <si>
+    <t>XT60 - connector</t>
+  </si>
+  <si>
+    <t>a - 1</t>
+  </si>
+  <si>
+    <t>Containers in general - transparent</t>
+  </si>
+  <si>
+    <t>a - as required</t>
   </si>
 </sst>
 </file>
@@ -578,10 +602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D36"/>
+  <dimension ref="A2:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -730,14 +754,12 @@
         <v>42</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C16" s="2">
         <v>4</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1">
       <c r="A17" s="6" t="s">
@@ -813,10 +835,10 @@
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1">
       <c r="A24" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" t="s">
         <v>44</v>
-      </c>
-      <c r="B24" t="s">
-        <v>45</v>
       </c>
       <c r="C24">
         <v>4</v>
@@ -826,54 +848,82 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A25" s="5"/>
+      <c r="A25" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A26" s="5"/>
+      <c r="A26" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A27" s="5"/>
+      <c r="A27" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A29" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A30" s="5"/>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A31" s="5" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A30" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C30" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A31" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A32" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C32" s="2">
-        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1">
       <c r="A33" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C33" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" customHeight="1">
       <c r="A34" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C34" s="2">
         <v>2</v>
@@ -881,17 +931,41 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1">
       <c r="A35" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C35" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1">
       <c r="A36" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A37" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A38" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A39" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C39" s="2">
         <v>2</v>
       </c>
     </row>
